--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1665934.810207061</v>
+        <v>-1668851.775919682</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5.447628153898726</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.447628153898726</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>13.99145537648747</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>13.99145537648747</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,76 +972,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>12.32367389561016</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>13.99145537648747</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>13.99145537648747</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>13.99145537648747</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>12.32367389561017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,67 +1054,67 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>13.99145537648747</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="V7" t="n">
+        <v>12.32367389561017</v>
+      </c>
+      <c r="W7" t="n">
         <v>13.99145537648747</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13.99145537648747</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>12.32367389561017</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.25317302789425</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>131.5141421746426</v>
       </c>
       <c r="I8" t="n">
-        <v>118.2609691467483</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="U8" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>32.07159191921399</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="V9" t="n">
-        <v>138.390187916354</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>106.3185959971401</v>
       </c>
     </row>
     <row r="10">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>132.2779005808928</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>13.11952758854012</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.177839155320669</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>182.0385234579866</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>151.1520210031452</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>60.61620153653799</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>62.95376192076642</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389033</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>163.0747951064688</v>
+        <v>294.0705787619483</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1661,7 +1661,7 @@
         <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>133.457554034972</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442975</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>26.71263450165963</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
         <v>286.1933087134791</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894955</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
         <v>378.5542040247498</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642294995</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
         <v>219.3243840645688</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2014,13 +2014,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510292</v>
       </c>
       <c r="H19" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453059</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2059,10 +2059,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
         <v>219.3243840645688</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2254,10 +2254,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053443007</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2293,13 +2293,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
@@ -2318,7 +2318,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
@@ -2375,7 +2375,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
         <v>317.6307663651991</v>
@@ -2491,7 +2491,7 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053443007</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
         <v>54.52629139453009</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
         <v>219.3243840645688</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943561</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2767,13 +2767,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038391</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464139</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453106</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3004,13 +3004,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
         <v>194.0994530368232</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112654</v>
       </c>
       <c r="C35" t="n">
         <v>333.6626894187936</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
@@ -3433,7 +3433,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707162</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -4031,7 +4031,7 @@
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645677</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.19760038789568</v>
+        <v>27.70025508880348</v>
       </c>
       <c r="C5" t="n">
-        <v>22.19760038789568</v>
+        <v>27.70025508880348</v>
       </c>
       <c r="D5" t="n">
         <v>22.19760038789568</v>
@@ -4565,19 +4565,19 @@
         <v>1.119316430118998</v>
       </c>
       <c r="J5" t="n">
-        <v>1.119316430118998</v>
+        <v>9.894535296215656</v>
       </c>
       <c r="K5" t="n">
-        <v>14.9708572528416</v>
+        <v>23.74607611893826</v>
       </c>
       <c r="L5" t="n">
-        <v>14.9708572528416</v>
+        <v>37.59761694166085</v>
       </c>
       <c r="M5" t="n">
-        <v>14.9708572528416</v>
+        <v>37.59761694166085</v>
       </c>
       <c r="N5" t="n">
-        <v>28.82239807556419</v>
+        <v>42.1142806832273</v>
       </c>
       <c r="O5" t="n">
         <v>42.1142806832273</v>
@@ -4589,28 +4589,28 @@
         <v>55.9658215059499</v>
       </c>
       <c r="R5" t="n">
-        <v>50.46316680504209</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="S5" t="n">
-        <v>50.46316680504209</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="T5" t="n">
-        <v>50.46316680504209</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="U5" t="n">
-        <v>50.46316680504209</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="V5" t="n">
-        <v>36.33038359646888</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="W5" t="n">
-        <v>22.19760038789568</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="X5" t="n">
-        <v>22.19760038789568</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.19760038789568</v>
+        <v>27.70025508880348</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.38488284726541</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="C6" t="n">
-        <v>29.38488284726541</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="D6" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="E6" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="F6" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="G6" t="n">
         <v>1.119316430118998</v>
@@ -4671,25 +4671,25 @@
         <v>55.9658215059499</v>
       </c>
       <c r="S6" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="T6" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="U6" t="n">
-        <v>55.9658215059499</v>
+        <v>27.70025508880348</v>
       </c>
       <c r="V6" t="n">
-        <v>55.9658215059499</v>
+        <v>27.70025508880348</v>
       </c>
       <c r="W6" t="n">
-        <v>55.9658215059499</v>
+        <v>27.70025508880348</v>
       </c>
       <c r="X6" t="n">
-        <v>55.9658215059499</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.51766605583862</v>
+        <v>13.56747188023027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.51766605583862</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="C7" t="n">
-        <v>43.51766605583862</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="D7" t="n">
-        <v>43.51766605583862</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="E7" t="n">
-        <v>29.38488284726541</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="F7" t="n">
-        <v>29.38488284726541</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="G7" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="H7" t="n">
         <v>1.119316430118998</v>
@@ -4726,16 +4726,16 @@
         <v>1.119316430118998</v>
       </c>
       <c r="K7" t="n">
-        <v>1.119316430118998</v>
+        <v>14.9708572528416</v>
       </c>
       <c r="L7" t="n">
         <v>14.9708572528416</v>
       </c>
       <c r="M7" t="n">
-        <v>14.9708572528416</v>
+        <v>28.2627398605047</v>
       </c>
       <c r="N7" t="n">
-        <v>28.82239807556419</v>
+        <v>28.2627398605047</v>
       </c>
       <c r="O7" t="n">
         <v>42.1142806832273</v>
@@ -4750,25 +4750,25 @@
         <v>55.9658215059499</v>
       </c>
       <c r="S7" t="n">
-        <v>43.51766605583862</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="T7" t="n">
-        <v>43.51766605583862</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="U7" t="n">
-        <v>43.51766605583862</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="V7" t="n">
-        <v>43.51766605583862</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="W7" t="n">
-        <v>43.51766605583862</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="X7" t="n">
-        <v>43.51766605583862</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.51766605583862</v>
+        <v>15.2520996386922</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.3575679589948</v>
+        <v>311.0633679162812</v>
       </c>
       <c r="C8" t="n">
-        <v>152.3575679589948</v>
+        <v>311.0633679162812</v>
       </c>
       <c r="D8" t="n">
-        <v>152.3575679589948</v>
+        <v>311.0633679162812</v>
       </c>
       <c r="E8" t="n">
-        <v>152.3575679589948</v>
+        <v>311.0633679162812</v>
       </c>
       <c r="F8" t="n">
+        <v>304.1178671670777</v>
+      </c>
+      <c r="G8" t="n">
         <v>145.4120672097914</v>
       </c>
-      <c r="G8" t="n">
-        <v>132.0250237472719</v>
-      </c>
       <c r="H8" t="n">
-        <v>132.0250237472719</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="I8" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="J8" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="K8" t="n">
-        <v>52.78571257950543</v>
+        <v>101.5645669032559</v>
       </c>
       <c r="L8" t="n">
-        <v>139.579243101269</v>
+        <v>188.3580974250195</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8232065737889</v>
+        <v>316.6020608975394</v>
       </c>
       <c r="N8" t="n">
-        <v>402.756099829063</v>
+        <v>451.5349541528136</v>
       </c>
       <c r="O8" t="n">
-        <v>516.8341434361915</v>
+        <v>565.6129977599421</v>
       </c>
       <c r="P8" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="Q8" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="R8" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="S8" t="n">
-        <v>469.7691678735673</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="T8" t="n">
-        <v>311.0633679162811</v>
+        <v>469.7691678735675</v>
       </c>
       <c r="U8" t="n">
-        <v>152.3575679589948</v>
+        <v>469.7691678735675</v>
       </c>
       <c r="V8" t="n">
-        <v>152.3575679589948</v>
+        <v>469.7691678735675</v>
       </c>
       <c r="W8" t="n">
-        <v>152.3575679589948</v>
+        <v>311.0633679162812</v>
       </c>
       <c r="X8" t="n">
-        <v>152.3575679589948</v>
+        <v>311.0633679162812</v>
       </c>
       <c r="Y8" t="n">
-        <v>152.3575679589948</v>
+        <v>311.0633679162812</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>171.2752993139033</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="C9" t="n">
-        <v>171.2752993139033</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="D9" t="n">
-        <v>171.2752993139033</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="E9" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="F9" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="G9" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="H9" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="I9" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="J9" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="K9" t="n">
-        <v>51.41474465792126</v>
+        <v>51.41474465792123</v>
       </c>
       <c r="L9" t="n">
         <v>149.9695119216956</v>
       </c>
       <c r="M9" t="n">
-        <v>284.335144962728</v>
+        <v>284.3351449627282</v>
       </c>
       <c r="N9" t="n">
-        <v>436.6656814086846</v>
+        <v>436.6656814086849</v>
       </c>
       <c r="O9" t="n">
-        <v>553.798566872125</v>
+        <v>553.7985668721253</v>
       </c>
       <c r="P9" t="n">
-        <v>628.4749678308534</v>
+        <v>628.4749678308538</v>
       </c>
       <c r="Q9" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="R9" t="n">
-        <v>628.4749678308535</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="S9" t="n">
-        <v>628.4749678308535</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="T9" t="n">
-        <v>469.7691678735673</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="U9" t="n">
-        <v>311.0633679162811</v>
+        <v>437.3736204804221</v>
       </c>
       <c r="V9" t="n">
-        <v>171.2752993139033</v>
+        <v>278.6678205231358</v>
       </c>
       <c r="W9" t="n">
-        <v>171.2752993139033</v>
+        <v>119.9620205658495</v>
       </c>
       <c r="X9" t="n">
-        <v>171.2752993139033</v>
+        <v>119.9620205658495</v>
       </c>
       <c r="Y9" t="n">
-        <v>171.2752993139033</v>
+        <v>12.56949935661708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>301.7928233149471</v>
+        <v>173.7346410082426</v>
       </c>
       <c r="C10" t="n">
-        <v>168.1787823241463</v>
+        <v>173.7346410082426</v>
       </c>
       <c r="D10" t="n">
-        <v>168.1787823241463</v>
+        <v>160.4825929390102</v>
       </c>
       <c r="E10" t="n">
-        <v>168.1787823241463</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="F10" t="n">
-        <v>168.1787823241463</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="G10" t="n">
-        <v>168.1787823241463</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="H10" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="I10" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="J10" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="K10" t="n">
-        <v>96.26795780325851</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="L10" t="n">
-        <v>164.3921290486238</v>
+        <v>168.1170538947534</v>
       </c>
       <c r="M10" t="n">
-        <v>319.9396835867601</v>
+        <v>319.9396835867603</v>
       </c>
       <c r="N10" t="n">
-        <v>475.4872381248963</v>
+        <v>475.4872381248966</v>
       </c>
       <c r="O10" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="P10" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="Q10" t="n">
-        <v>619.2044232295195</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="R10" t="n">
-        <v>619.2044232295195</v>
+        <v>491.1462409228153</v>
       </c>
       <c r="S10" t="n">
-        <v>460.4986232722333</v>
+        <v>491.1462409228153</v>
       </c>
       <c r="T10" t="n">
-        <v>460.4986232722333</v>
+        <v>491.1462409228153</v>
       </c>
       <c r="U10" t="n">
-        <v>460.4986232722333</v>
+        <v>332.440440965529</v>
       </c>
       <c r="V10" t="n">
-        <v>460.4986232722333</v>
+        <v>332.440440965529</v>
       </c>
       <c r="W10" t="n">
-        <v>301.7928233149471</v>
+        <v>173.7346410082426</v>
       </c>
       <c r="X10" t="n">
-        <v>301.7928233149471</v>
+        <v>173.7346410082426</v>
       </c>
       <c r="Y10" t="n">
-        <v>301.7928233149471</v>
+        <v>173.7346410082426</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1888.09808975843</v>
+        <v>1384.829779622645</v>
       </c>
       <c r="C11" t="n">
-        <v>1519.135572818019</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D11" t="n">
-        <v>1160.869874211268</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E11" t="n">
-        <v>775.0816216130238</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.975386180639</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.975386180639</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
@@ -5124,7 +5124,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,22 +5136,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>421.8708831972622</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>421.8708831972622</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>273.9577896148691</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>273.9577896148691</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1863.704889582668</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1863.704889582668</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1863.704889582668</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1609.020401376781</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1319.60323133982</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y13" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2119.495941717928</v>
+        <v>1866.026662509056</v>
       </c>
       <c r="C14" t="n">
-        <v>1750.533424777516</v>
+        <v>1497.064145568645</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.811409518456</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="E14" t="n">
         <v>1200.023156920212</v>
@@ -5267,13 +5267,13 @@
         <v>789.0372521306047</v>
       </c>
       <c r="G14" t="n">
-        <v>374.7297709417524</v>
+        <v>374.7297709417525</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J14" t="n">
         <v>337.4933016076836</v>
@@ -5285,10 +5285,10 @@
         <v>1336.032957050962</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233286</v>
@@ -5297,10 +5297,10 @@
         <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S14" t="n">
         <v>4156.161510599077</v>
@@ -5309,19 +5309,19 @@
         <v>3953.532414632626</v>
       </c>
       <c r="U14" t="n">
-        <v>3953.532414632626</v>
+        <v>3700.063135423755</v>
       </c>
       <c r="V14" t="n">
-        <v>3622.469527289055</v>
+        <v>3369.000248080184</v>
       </c>
       <c r="W14" t="n">
-        <v>3269.700872018941</v>
+        <v>3016.23159281007</v>
       </c>
       <c r="X14" t="n">
-        <v>2896.235113757861</v>
+        <v>2642.76583454899</v>
       </c>
       <c r="Y14" t="n">
-        <v>2506.095781782049</v>
+        <v>2252.626502573178</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K15" t="n">
         <v>388.0214583249805</v>
@@ -5364,16 +5364,16 @@
         <v>841.8200879193078</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.28233189698</v>
+        <v>1381.839344833951</v>
       </c>
       <c r="N15" t="n">
-        <v>1662.137679823383</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O15" t="n">
-        <v>2168.542634771632</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1009.362341688345</v>
+        <v>516.7926060216977</v>
       </c>
       <c r="C16" t="n">
-        <v>840.4261587604381</v>
+        <v>516.7926060216977</v>
       </c>
       <c r="D16" t="n">
-        <v>690.3095193481023</v>
+        <v>366.6759666093619</v>
       </c>
       <c r="E16" t="n">
-        <v>542.3964257657092</v>
+        <v>366.6759666093619</v>
       </c>
       <c r="F16" t="n">
-        <v>395.5064782677988</v>
+        <v>219.7860191114516</v>
       </c>
       <c r="G16" t="n">
-        <v>228.1467803857361</v>
+        <v>219.7860191114516</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755866</v>
@@ -5458,28 +5458,28 @@
         <v>2279.16862496767</v>
       </c>
       <c r="R16" t="n">
-        <v>2279.16862496767</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2279.16862496767</v>
+        <v>2019.061021685724</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.186165875085</v>
+        <v>1798.760544521728</v>
       </c>
       <c r="U16" t="n">
-        <v>1963.10201565945</v>
+        <v>1509.676394306093</v>
       </c>
       <c r="V16" t="n">
-        <v>1708.417527453563</v>
+        <v>1254.991906100206</v>
       </c>
       <c r="W16" t="n">
-        <v>1419.000357416602</v>
+        <v>965.5747360632452</v>
       </c>
       <c r="X16" t="n">
-        <v>1191.010806518585</v>
+        <v>737.5851851652278</v>
       </c>
       <c r="Y16" t="n">
-        <v>1191.010806518585</v>
+        <v>516.7926060216977</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
         <v>725.1782574796674</v>
@@ -5507,10 +5507,10 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076837</v>
@@ -5519,7 +5519,7 @@
         <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050961</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
         <v>2001.213713746738</v>
@@ -5531,34 +5531,34 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
@@ -5601,19 +5601,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>2049.239235375538</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O18" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315394</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897936</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
@@ -5716,7 +5716,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
         <v>3496.718237382059</v>
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277776</v>
+        <v>510.5988892561712</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538067</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N21" t="n">
-        <v>2049.239235375538</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O21" t="n">
-        <v>2555.644190323788</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315394</v>
       </c>
       <c r="G22" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749453</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
@@ -5917,43 +5917,43 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5975,7 +5975,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -5990,16 +5990,16 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
@@ -6017,22 +6017,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>93.82973291098881</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>396.8707822608532</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6694118551806</v>
+        <v>670.3561405779133</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1219.274605188202</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>1797.129953114605</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2303.534908062855</v>
       </c>
       <c r="P24" t="n">
         <v>2322.031270281989</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609056</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039811</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315394</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749453</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
@@ -6145,52 +6145,52 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216582</v>
@@ -6212,7 +6212,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
@@ -6224,25 +6224,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767228</v>
@@ -6306,16 +6306,16 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334502</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L27" t="n">
-        <v>519.5985603334502</v>
+        <v>670.3561405779133</v>
       </c>
       <c r="M27" t="n">
-        <v>1068.517024943739</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.372372870142</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O27" t="n">
         <v>1934.929714729833</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,19 +6397,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127669</v>
@@ -6427,7 +6427,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076842</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746739</v>
@@ -6479,7 +6479,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
         <v>4142.907144767228</v>
@@ -6497,16 +6497,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M30" t="n">
         <v>850.6694118551806</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315394</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749453</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897941</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
@@ -6622,49 +6622,49 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951448</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6710,40 +6710,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>216.5575109835859</v>
+        <v>93.82973291098881</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334502</v>
+        <v>396.8707822608532</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277776</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.315654538067</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N33" t="n">
-        <v>2100.171002464469</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O33" t="n">
-        <v>2322.031270281989</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P33" t="n">
         <v>2322.031270281989</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631539</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042795</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443622</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902797</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
         <v>2529.521427597205</v>
@@ -6883,25 +6883,25 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796655</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162819</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511424</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746738</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>388.0214583249805</v>
+        <v>450.5726436074859</v>
       </c>
       <c r="L36" t="n">
-        <v>688.8525027970471</v>
+        <v>904.3712732018133</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.770967407336</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.626315333739</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O36" t="n">
-        <v>2322.031270281989</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E37" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F37" t="n">
         <v>386.7245456315385</v>
@@ -7093,7 +7093,7 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
         <v>459.5287020443611</v>
@@ -7114,31 +7114,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
         <v>1784.429621497863</v>
@@ -7163,7 +7163,7 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511622</v>
@@ -7184,7 +7184,7 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
@@ -7211,13 +7211,13 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1084.28233189698</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N39" t="n">
-        <v>1662.137679823382</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.542634771632</v>
+        <v>2057.65749280243</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.644190323788</v>
+        <v>2444.759048354586</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315385</v>
@@ -7330,13 +7330,13 @@
         <v>84.98040897511623</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443606</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7345,10 +7345,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7357,10 +7357,10 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237501</v>
@@ -7372,7 +7372,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7424,37 +7424,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
         <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
@@ -7494,22 +7494,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277776</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.315654538067</v>
+        <v>1068.517024943739</v>
       </c>
       <c r="N42" t="n">
-        <v>2049.239235375538</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O42" t="n">
-        <v>2555.644190323788</v>
+        <v>2152.777327818392</v>
       </c>
       <c r="P42" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7600,7 +7600,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7640,10 +7640,10 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
         <v>337.4933016076836</v>
@@ -7664,19 +7664,19 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400162</v>
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>538.7790385694436</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.697503179733</v>
+        <v>1068.517024943739</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.552851106135</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O45" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H46" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313935</v>
@@ -7828,10 +7828,10 @@
         <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
         <v>2144.901839127669</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.78639360506736</v>
+        <v>72.7863936050675</v>
       </c>
       <c r="K2" t="n">
-        <v>57.83690755661246</v>
+        <v>57.83690755661266</v>
       </c>
       <c r="L2" t="n">
-        <v>34.4772911859742</v>
+        <v>34.47729118597445</v>
       </c>
       <c r="M2" t="n">
-        <v>6.373298755593169</v>
+        <v>6.373298755593424</v>
       </c>
       <c r="N2" t="n">
-        <v>1.816012888665711</v>
+        <v>1.816012888666023</v>
       </c>
       <c r="O2" t="n">
-        <v>15.18477033071434</v>
+        <v>15.1847703307146</v>
       </c>
       <c r="P2" t="n">
-        <v>47.80934598231323</v>
+        <v>47.80934598231346</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.56216776028612</v>
+        <v>84.56216776028629</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.35900361364759</v>
+        <v>62.35900361364767</v>
       </c>
       <c r="K3" t="n">
-        <v>27.63720217277114</v>
+        <v>27.63720217277128</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.652217614304931</v>
+        <v>3.652217614305101</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.86484147680802</v>
+        <v>52.86484147680814</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>62.53849819891902</v>
+        <v>62.5384981989191</v>
       </c>
       <c r="L4" t="n">
-        <v>49.81986997640148</v>
+        <v>49.81986997640159</v>
       </c>
       <c r="M4" t="n">
-        <v>49.23687266508698</v>
+        <v>49.23687266508709</v>
       </c>
       <c r="N4" t="n">
-        <v>40.12923502843982</v>
+        <v>40.12923502843994</v>
       </c>
       <c r="O4" t="n">
-        <v>57.58411528762591</v>
+        <v>57.58411528762601</v>
       </c>
       <c r="P4" t="n">
-        <v>68.52767488933667</v>
+        <v>68.52767488933675</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.75247211164648</v>
+        <v>78.61632955214816</v>
       </c>
       <c r="K5" t="n">
-        <v>67.2813010774763</v>
+        <v>67.28130107747629</v>
       </c>
       <c r="L5" t="n">
-        <v>28.8362588753597</v>
+        <v>42.82771425184717</v>
       </c>
       <c r="M5" t="n">
         <v>0.09656339947136416</v>
       </c>
       <c r="N5" t="n">
-        <v>9.429168768844599</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>22.58806703177433</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P5" t="n">
         <v>56.66044049156213</v>
@@ -8374,19 +8374,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>60.67557455063191</v>
+        <v>74.66702992711939</v>
       </c>
       <c r="L7" t="n">
-        <v>61.42742446524517</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M7" t="n">
-        <v>46.72338342663512</v>
+        <v>60.14952747477967</v>
       </c>
       <c r="N7" t="n">
-        <v>51.66696632264114</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O7" t="n">
-        <v>68.74384799902803</v>
+        <v>69.30915932737095</v>
       </c>
       <c r="P7" t="n">
         <v>80.57982383258377</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.091680627731932</v>
+        <v>7.091680627731904</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>49.27157002399034</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>49.27157002399019</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239418</v>
+        <v>0.9757828529239134</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818572</v>
+        <v>23.2316826181857</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>22.19986892380257</v>
       </c>
       <c r="L10" t="n">
-        <v>67.0126067954659</v>
+        <v>155.3190545659417</v>
       </c>
       <c r="M10" t="n">
-        <v>151.9300289740654</v>
+        <v>148.1674786244398</v>
       </c>
       <c r="N10" t="n">
-        <v>144.1165101169798</v>
+        <v>144.11651011698</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>26.53509868619513</v>
+        <v>26.53509868619511</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>129.0457808194519</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.74473904979465</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>216.2514697617199</v>
       </c>
     </row>
     <row r="3">
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.695318205494</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>214.1208707678623</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>105.4096067224902</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>126.8152634106755</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>191.6082465142142</v>
+        <v>60.61246285873466</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>8.277153661541661</v>
       </c>
       <c r="I16" t="n">
         <v>86.13649374674408</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442975</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>191.3848378906963</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.797673121473053e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.008970684779342e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-9.592326932761353e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>135290.4931337332</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>119348.9846398223</v>
@@ -26326,22 +26326,22 @@
         <v>134180.0568414793</v>
       </c>
       <c r="G2" t="n">
+        <v>143682.3097262498</v>
+      </c>
+      <c r="H2" t="n">
+        <v>143682.3097262498</v>
+      </c>
+      <c r="I2" t="n">
         <v>143682.3097262497</v>
       </c>
-      <c r="H2" t="n">
-        <v>143682.3097262497</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>143682.3097262498</v>
-      </c>
-      <c r="J2" t="n">
-        <v>143682.3097262496</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262496</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>305744.3283029953</v>
+        <v>305744.328302995</v>
       </c>
       <c r="C3" t="n">
-        <v>12617.20107399347</v>
+        <v>12617.20107399381</v>
       </c>
       <c r="D3" t="n">
-        <v>201738.1196786464</v>
+        <v>201738.1196786465</v>
       </c>
       <c r="E3" t="n">
         <v>667257.5729881104</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963076</v>
+        <v>215052.1096963077</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177114</v>
+        <v>25288.16188177118</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>3600.952887335826</v>
       </c>
       <c r="L3" t="n">
-        <v>61512.38996990019</v>
+        <v>61512.38996990031</v>
       </c>
       <c r="M3" t="n">
-        <v>168033.9493212428</v>
+        <v>168033.9493212427</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578632</v>
+        <v>56542.29359578634</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>287430.0799408477</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211615</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
         <v>11109.76596381461</v>
       </c>
       <c r="G4" t="n">
+        <v>42179.65104603468</v>
+      </c>
+      <c r="H4" t="n">
+        <v>42179.65104603468</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42179.65104603472</v>
+      </c>
+      <c r="J4" t="n">
         <v>42179.65104603466</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>42179.65104603469</v>
+      </c>
+      <c r="L4" t="n">
+        <v>42179.65104603475</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42179.65104603469</v>
+      </c>
+      <c r="N4" t="n">
         <v>42179.65104603466</v>
       </c>
-      <c r="I4" t="n">
-        <v>42179.65104603471</v>
-      </c>
-      <c r="J4" t="n">
-        <v>42179.65104603468</v>
-      </c>
-      <c r="K4" t="n">
-        <v>42179.65104603468</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>42179.65104603466</v>
       </c>
-      <c r="M4" t="n">
-        <v>42179.65104603477</v>
-      </c>
-      <c r="N4" t="n">
-        <v>42179.65104603469</v>
-      </c>
-      <c r="O4" t="n">
-        <v>42179.65104603464</v>
-      </c>
       <c r="P4" t="n">
-        <v>42179.65104603471</v>
+        <v>42179.65104603465</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40544.51203523126</v>
+        <v>40544.51203523124</v>
       </c>
       <c r="C5" t="n">
         <v>41589.03570424159</v>
@@ -26476,34 +26476,34 @@
         <v>54294.69533421406</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>92448.99600060697</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-536949.1739219872</v>
+        <v>-537069.0570161657</v>
       </c>
       <c r="C6" t="n">
-        <v>-259708.3820807346</v>
+        <v>-259708.3820807351</v>
       </c>
       <c r="D6" t="n">
-        <v>-399780.5852274587</v>
+        <v>-399780.5852274586</v>
       </c>
       <c r="E6" t="n">
-        <v>-633205.2199417975</v>
+        <v>-633552.8388716035</v>
       </c>
       <c r="F6" t="n">
-        <v>-184430.8148192498</v>
+        <v>-184566.5612890323</v>
       </c>
       <c r="G6" t="n">
-        <v>-18891.93730371134</v>
+        <v>-18891.93730371131</v>
       </c>
       <c r="H6" t="n">
-        <v>6396.224578059773</v>
+        <v>6396.224578059831</v>
       </c>
       <c r="I6" t="n">
-        <v>6396.224578059788</v>
+        <v>6396.224578059686</v>
       </c>
       <c r="J6" t="n">
-        <v>6396.224578059657</v>
+        <v>6396.224578059831</v>
       </c>
       <c r="K6" t="n">
-        <v>2795.271690723937</v>
+        <v>2795.271690723894</v>
       </c>
       <c r="L6" t="n">
-        <v>-55116.16539184048</v>
+        <v>-55116.16539184072</v>
       </c>
       <c r="M6" t="n">
-        <v>-161637.7247431832</v>
+        <v>-161637.7247431831</v>
       </c>
       <c r="N6" t="n">
         <v>-50146.06901772661</v>
       </c>
       <c r="O6" t="n">
-        <v>6396.224578059802</v>
+        <v>6396.22457805973</v>
       </c>
       <c r="P6" t="n">
-        <v>6396.224578059599</v>
+        <v>6396.224578059773</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I2" t="n">
         <v>31.61020235221397</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="P2" t="n">
         <v>31.61020235221394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221396</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317.2895429005164</v>
+        <v>317.289542900516</v>
       </c>
       <c r="C3" t="n">
         <v>326.1814319885848</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011504</v>
+        <v>509.8291662011505</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,16 +26793,16 @@
         <v>13.99145537648747</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
         <v>1062.255112188953</v>
@@ -26820,7 +26820,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317.2895429005164</v>
+        <v>317.289542900516</v>
       </c>
       <c r="C3" t="n">
-        <v>8.891889088068414</v>
+        <v>8.891889088068789</v>
       </c>
       <c r="D3" t="n">
-        <v>183.6477342125656</v>
+        <v>183.6477342125657</v>
       </c>
       <c r="E3" t="n">
         <v>579.9475343921479</v>
@@ -27015,13 +27015,13 @@
         <v>13.99145537648747</v>
       </c>
       <c r="D4" t="n">
-        <v>143.1272865812259</v>
+        <v>143.127286581226</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2827134445793</v>
+        <v>674.282713444579</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866597</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>13.99145537648747</v>
       </c>
       <c r="L4" t="n">
-        <v>143.1272865812259</v>
+        <v>143.1272865812262</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2827134445788</v>
+        <v>674.2827134445786</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866603</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>13.99145537648747</v>
       </c>
       <c r="L4" t="n">
-        <v>143.1272865812259</v>
+        <v>143.127286581226</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2827134445793</v>
+        <v>674.282713444579</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866597</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27397,7 @@
         <v>326.4117205831846</v>
       </c>
       <c r="I2" t="n">
-        <v>32.2550128608147</v>
+        <v>161.3007936802666</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.74473904979475</v>
       </c>
       <c r="S2" t="n">
-        <v>179.9537963848563</v>
+        <v>179.9537963848564</v>
       </c>
       <c r="T2" t="n">
         <v>217.5121913770077</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>169.9864688943337</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>105.6442029773744</v>
       </c>
       <c r="I3" t="n">
-        <v>65.89924689132967</v>
+        <v>65.8992468913297</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.78471368755152</v>
+        <v>57.78471368755157</v>
       </c>
       <c r="S3" t="n">
         <v>159.0065558756899</v>
@@ -27558,7 +27558,7 @@
         <v>138.2440190598008</v>
       </c>
       <c r="J4" t="n">
-        <v>52.90736413081515</v>
+        <v>52.9073641308152</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.25132227371641</v>
+        <v>38.25132227371648</v>
       </c>
       <c r="R4" t="n">
         <v>151.5669310626457</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>349.2354134667842</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>62.05166314543008</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S5" t="n">
         <v>179.1392278518137</v>
@@ -27673,16 +27673,16 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V5" t="n">
-        <v>313.7608030936474</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>335.2495133409255</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>355.7396453019816</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>372.2464832795661</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.5417282733799</v>
+        <v>154.2095097542572</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4536101881513</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>122.6504639896156</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H6" t="n">
         <v>105.4594865644317</v>
@@ -27743,13 +27743,13 @@
         <v>56.59722706556381</v>
       </c>
       <c r="S6" t="n">
-        <v>158.6512997408977</v>
+        <v>144.6598443644102</v>
       </c>
       <c r="T6" t="n">
         <v>197.336797223147</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8952243311651</v>
+        <v>211.9037689546776</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>191.78152982699</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.3590218816942</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>153.2553657221404</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>132.4425072700817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>153.4113279570738</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H7" t="n">
-        <v>143.0061197459548</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I7" t="n">
         <v>137.761816287615</v>
@@ -27822,19 +27822,19 @@
         <v>150.8459592031442</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4422715983766</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T7" t="n">
         <v>225.4323882309924</v>
       </c>
       <c r="U7" t="n">
-        <v>286.286945936951</v>
+        <v>272.2954905604636</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.8139694282178</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>272.5315429601035</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>256.1344310701808</v>
       </c>
       <c r="H8" t="n">
-        <v>318.4846998108122</v>
+        <v>186.9705576361696</v>
       </c>
       <c r="I8" t="n">
-        <v>13.19908552930639</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>21.12316271950939</v>
       </c>
       <c r="S8" t="n">
-        <v>5.196876875532084</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>57.00513906352135</v>
+        <v>57.00513906352126</v>
       </c>
       <c r="U8" t="n">
-        <v>94.06294579114385</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>192.1222267596995</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5263384976875614</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27950,7 @@
         <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>51.64041629783931</v>
+        <v>51.6404162978393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.071591919214</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.3140530013673</v>
       </c>
       <c r="T9" t="n">
-        <v>38.62586406032656</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>68.75049448653485</v>
+        <v>68.75049448653476</v>
       </c>
       <c r="V9" t="n">
-        <v>94.41039923307127</v>
+        <v>75.6818451917118</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>94.57624120320614</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>99.36409978016431</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.968920517735</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>135.4959454296722</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
         <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>28.36014035361792</v>
+        <v>28.36014035361791</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>9.177839155320669</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>50.87584769224895</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
         <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2688822253891</v>
+        <v>129.1501402676757</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.4042563788776</v>
+        <v>129.4042563788775</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>4.149569576838985e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="23">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221446</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.6102023522152</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605694</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221511</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.275535850856346</v>
+        <v>1.275535850856345</v>
       </c>
       <c r="H2" t="n">
-        <v>13.06308153258256</v>
+        <v>13.06308153258254</v>
       </c>
       <c r="I2" t="n">
-        <v>49.17509589013934</v>
+        <v>49.17509589013927</v>
       </c>
       <c r="J2" t="n">
-        <v>108.2595109216189</v>
+        <v>108.2595109216188</v>
       </c>
       <c r="K2" t="n">
-        <v>162.2529434883681</v>
+        <v>162.2529434883679</v>
       </c>
       <c r="L2" t="n">
-        <v>201.289123784013</v>
+        <v>201.2891237840128</v>
       </c>
       <c r="M2" t="n">
-        <v>223.9729344716796</v>
+        <v>223.9729344716793</v>
       </c>
       <c r="N2" t="n">
-        <v>227.5970507079252</v>
+        <v>227.5970507079249</v>
       </c>
       <c r="O2" t="n">
-        <v>214.9134410909724</v>
+        <v>214.9134410909721</v>
       </c>
       <c r="P2" t="n">
-        <v>183.4236497729563</v>
+        <v>183.4236497729561</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.7435221141634</v>
+        <v>137.7435221141632</v>
       </c>
       <c r="R2" t="n">
-        <v>80.12437889135504</v>
+        <v>80.12437889135494</v>
       </c>
       <c r="S2" t="n">
-        <v>29.06627320138902</v>
+        <v>29.06627320138898</v>
       </c>
       <c r="T2" t="n">
-        <v>5.583658187123659</v>
+        <v>5.583658187123651</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1020428680685077</v>
+        <v>0.1020428680685076</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6824718469935636</v>
+        <v>0.6824718469935627</v>
       </c>
       <c r="H3" t="n">
-        <v>6.591241259122049</v>
+        <v>6.59124125912204</v>
       </c>
       <c r="I3" t="n">
-        <v>23.49738596008541</v>
+        <v>23.49738596008538</v>
       </c>
       <c r="J3" t="n">
-        <v>64.47862305301911</v>
+        <v>64.47862305301902</v>
       </c>
       <c r="K3" t="n">
-        <v>110.2042368015879</v>
+        <v>110.2042368015877</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -31145,22 +31145,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>130.3221898000253</v>
+        <v>130.3221898000251</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.11693260921349</v>
+        <v>87.11693260921338</v>
       </c>
       <c r="R3" t="n">
-        <v>42.37312046509162</v>
+        <v>42.37312046509157</v>
       </c>
       <c r="S3" t="n">
-        <v>12.67661522814798</v>
+        <v>12.67661522814796</v>
       </c>
       <c r="T3" t="n">
-        <v>2.750840470995985</v>
+        <v>2.750840470995982</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04489946361799762</v>
+        <v>0.04489946361799756</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5721614708042098</v>
+        <v>0.5721614708042091</v>
       </c>
       <c r="H4" t="n">
-        <v>5.087035622241069</v>
+        <v>5.087035622241062</v>
       </c>
       <c r="I4" t="n">
-        <v>17.20645586745751</v>
+        <v>17.20645586745749</v>
       </c>
       <c r="J4" t="n">
-        <v>40.45181598585763</v>
+        <v>40.45181598585758</v>
       </c>
       <c r="K4" t="n">
-        <v>66.47475997161636</v>
+        <v>66.47475997161628</v>
       </c>
       <c r="L4" t="n">
-        <v>85.06480630483681</v>
+        <v>85.06480630483669</v>
       </c>
       <c r="M4" t="n">
-        <v>89.68891128251808</v>
+        <v>89.68891128251796</v>
       </c>
       <c r="N4" t="n">
-        <v>87.55630943679337</v>
+        <v>87.55630943679326</v>
       </c>
       <c r="O4" t="n">
-        <v>80.87242316421688</v>
+        <v>80.87242316421678</v>
       </c>
       <c r="P4" t="n">
-        <v>69.20032915981095</v>
+        <v>69.20032915981086</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.91072097797797</v>
+        <v>47.91072097797791</v>
       </c>
       <c r="R4" t="n">
-        <v>25.72646031452383</v>
+        <v>25.72646031452379</v>
       </c>
       <c r="S4" t="n">
-        <v>9.971213995742453</v>
+        <v>9.97121399574244</v>
       </c>
       <c r="T4" t="n">
-        <v>2.444689920708896</v>
+        <v>2.444689920708893</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03120880749841148</v>
+        <v>0.03120880749841144</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31516,7 +31516,7 @@
         <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>20.99010230495489</v>
+        <v>20.9901023049549</v>
       </c>
       <c r="I8" t="n">
         <v>79.01583489435119</v>
@@ -31531,19 +31531,19 @@
         <v>323.4366478202535</v>
       </c>
       <c r="M8" t="n">
-        <v>359.8855902702221</v>
+        <v>359.8855902702222</v>
       </c>
       <c r="N8" t="n">
         <v>365.7089153695951</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995943</v>
+        <v>345.3285584995944</v>
       </c>
       <c r="P8" t="n">
-        <v>294.7299352208369</v>
+        <v>294.729935220837</v>
       </c>
       <c r="Q8" t="n">
-        <v>221.3299070215255</v>
+        <v>221.3299070215256</v>
       </c>
       <c r="R8" t="n">
         <v>128.7459552216403</v>
@@ -31552,7 +31552,7 @@
         <v>46.70445075299988</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896624</v>
+        <v>8.971968542896626</v>
       </c>
       <c r="U8" t="n">
         <v>0.1639651589792643</v>
@@ -31598,7 +31598,7 @@
         <v>10.59097947146164</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357577</v>
+        <v>37.75621655357578</v>
       </c>
       <c r="J9" t="n">
         <v>103.605944048481</v>
@@ -31613,7 +31613,7 @@
         <v>277.856895579627</v>
       </c>
       <c r="N9" t="n">
-        <v>285.2109408166228</v>
+        <v>285.2109408166229</v>
       </c>
       <c r="O9" t="n">
         <v>260.9122903671114</v>
@@ -31622,10 +31622,10 @@
         <v>209.4051154534499</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>139.9817740860216</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342913</v>
+        <v>68.08624223342915</v>
       </c>
       <c r="S9" t="n">
         <v>20.36911810247048</v>
@@ -31634,7 +31634,7 @@
         <v>4.420122676781671</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657792</v>
+        <v>0.07214563672657794</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987957</v>
+        <v>0.9193640701987958</v>
       </c>
       <c r="H10" t="n">
-        <v>8.173982369585662</v>
+        <v>8.173982369585664</v>
       </c>
       <c r="I10" t="n">
         <v>27.64778494743289</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305485</v>
+        <v>64.99903976305487</v>
       </c>
       <c r="K10" t="n">
         <v>106.8133892467328</v>
@@ -31689,7 +31689,7 @@
         <v>136.6843636730101</v>
       </c>
       <c r="M10" t="n">
-        <v>144.114496931253</v>
+        <v>144.1144969312531</v>
       </c>
       <c r="N10" t="n">
         <v>140.6877763059667</v>
@@ -32084,19 +32084,19 @@
         <v>596.9368339155583</v>
       </c>
       <c r="M15" t="n">
-        <v>387.045391475223</v>
+        <v>687.6080308054961</v>
       </c>
       <c r="N15" t="n">
         <v>715.0339827160627</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578282</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>524.9860796892349</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32321,22 +32321,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>645.1509001052084</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>548.1235910649156</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32549,31 +32549,31 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155584</v>
+        <v>262.3699665790566</v>
       </c>
       <c r="M21" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>663.5877533333045</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32786,16 +32786,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>135.7763377130026</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160628</v>
@@ -32804,7 +32804,7 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>152.6576015750716</v>
       </c>
       <c r="Q24" t="n">
         <v>350.9392912691326</v>
@@ -33026,19 +33026,19 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879669</v>
+        <v>324.2686513738034</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>434.0683069289812</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
         <v>524.986079689235</v>
@@ -33260,16 +33260,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463138</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879669</v>
+        <v>476.5490354591197</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160628</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115855</v>
+        <v>135.7763377130026</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
@@ -33506,16 +33506,16 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>366.6975250682018</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
         <v>350.9392912691326</v>
@@ -33734,31 +33734,31 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>443.943509024727</v>
+        <v>374.2203608166823</v>
       </c>
       <c r="L36" t="n">
-        <v>442.4241216708505</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33977,10 +33977,10 @@
         <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>154.478932257895</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160628</v>
@@ -33992,10 +33992,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>226.9718386705495</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34214,25 +34214,25 @@
         <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>663.5877533333045</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>304.9379856603878</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34384,7 +34384,7 @@
         <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q44" t="n">
         <v>554.8819566972011</v>
@@ -34445,13 +34445,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155584</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34460,7 +34460,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>439.7092158123408</v>
+        <v>434.0683069289812</v>
       </c>
       <c r="P45" t="n">
         <v>524.986079689235</v>
@@ -34469,7 +34469,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8.863857440501675</v>
       </c>
       <c r="K5" t="n">
         <v>13.99145537648747</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>13.99145537648747</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O5" t="n">
-        <v>13.42614404814455</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>13.99145537648747</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13.42614404814455</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>13.99145537648747</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13.99145537648747</v>
-      </c>
-      <c r="O7" t="n">
-        <v>13.42614404814455</v>
       </c>
       <c r="P7" t="n">
         <v>13.99145537648747</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887713</v>
+        <v>89.89400762286746</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026625</v>
+        <v>87.6702328502663</v>
       </c>
       <c r="M8" t="n">
         <v>129.5393570429494</v>
@@ -35188,7 +35188,7 @@
         <v>115.2303470779076</v>
       </c>
       <c r="P8" t="n">
-        <v>112.7685094895576</v>
+        <v>63.49693946556744</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646889</v>
+        <v>39.23762151646892</v>
       </c>
       <c r="L9" t="n">
         <v>99.55026996340843</v>
@@ -35261,13 +35261,13 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>153.8692287332895</v>
+        <v>153.8692287332896</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3160459226669</v>
+        <v>118.316045922667</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911965</v>
+        <v>75.43070803911968</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,16 +35331,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>84.54389742084994</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>68.81229418723768</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="M10" t="n">
-        <v>157.1187419577134</v>
+        <v>153.3561916080878</v>
       </c>
       <c r="N10" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="O10" t="n">
         <v>154.5330603090477</v>
@@ -35732,19 +35732,19 @@
         <v>458.3824541356841</v>
       </c>
       <c r="M15" t="n">
-        <v>244.9113575532047</v>
+        <v>545.4739968834778</v>
       </c>
       <c r="N15" t="n">
         <v>583.6922706327294</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133838</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>391.0116722749046</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>503.01686618319</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>416.7818789815822</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,10 +36048,10 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356842</v>
+        <v>123.8155867991825</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>532.2460412499712</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
@@ -36358,7 +36358,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721837</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169878</v>
@@ -36370,7 +36370,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348821</v>
       </c>
       <c r="P23" t="n">
         <v>507.665444827693</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.93871104633595</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327296</v>
@@ -36452,7 +36452,7 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>18.68319416074139</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9575171831111</v>
@@ -36613,7 +36613,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
         <v>107.1851555440239</v>
@@ -36674,19 +36674,19 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>182.1346174517851</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>291.4720624845368</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749048</v>
@@ -36753,16 +36753,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116848</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721831</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9601396664396</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>334.4150015371014</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327296</v>
@@ -36999,7 +36999,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
@@ -37087,7 +37087,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227535</v>
       </c>
       <c r="R32" t="n">
         <v>107.1851555440239</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449188</v>
+        <v>8.938711046335921</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
@@ -37154,16 +37154,16 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>224.1012806237574</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
         <v>210.9575171831111</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.966552622204722e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>255.0635279116842</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>306.102070050368</v>
+        <v>236.3789218423233</v>
       </c>
       <c r="L36" t="n">
-        <v>303.8697418909763</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
@@ -37552,10 +37552,10 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151681</v>
+        <v>687.432207215169</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348821</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P38" t="n">
         <v>507.665444827693</v>
@@ -37625,10 +37625,10 @@
         <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>15.92455247802082</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327296</v>
@@ -37640,10 +37640,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>86.99006458452799</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37795,7 +37795,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q41" t="n">
         <v>332.5762668227516</v>
@@ -37862,25 +37862,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>532.2460412499712</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>170.9635782460576</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -38032,7 +38032,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276929</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q44" t="n">
         <v>332.5762668227516</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356842</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38108,7 +38108,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>297.1129713678964</v>
+        <v>291.4720624845368</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749048</v>
@@ -38117,7 +38117,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
